--- a/public/elevatecopilot_resources_detailed/copilot-roi-calculator.xlsx
+++ b/public/elevatecopilot_resources_detailed/copilot-roi-calculator.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scenarios" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Outputs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scenarios" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,63 +515,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Scenario</t>
+          <t>Metric</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Minutes Saved/Day</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROI Expectation</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Conservative</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Modest ROI</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Median</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>26</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Strong ROI</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Aggressive</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Very strong ROI</t>
-        </is>
+          <t>Example ROI</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>100%</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -584,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,24 +557,124 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sources</t>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Minutes Saved</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ROI Expectation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UK Gov trial (26min/day saved)</t>
+          <t>Conservative</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Modest ROI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Median</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Strong ROI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aggressive</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Very strong ROI</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Microsoft WorkLab</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microsoft WTI (11min/day)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Forrester TEI ROI</t>
+          <t>https://www.microsoft.com/en-us/worklab</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Forrester TEI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://tei.forrester.com/go/Microsoft/365Copilot</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UK Gov Pilot</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.gov.uk/government/publications/microsoft-365-copilot-experiment-cross-government-findings-report</t>
         </is>
       </c>
     </row>
